--- a/python-excel-copilot-process-control-demo.xlsx
+++ b/python-excel-copilot-process-control-demo.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96386103-9B43-4905-97C4-92885394C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DEE91E-2C01-41D6-9346-B7214E8FCF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{F5974828-04FC-42F4-AF34-16FE33086D8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="temps" sheetId="1" r:id="rId1"/>
+    <sheet name="temps_process_control_chart" sheetId="11" r:id="rId2"/>
+    <sheet name="production_yield" sheetId="9" r:id="rId3"/>
+    <sheet name="production_yield_process_contro" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,20 +38,478 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="24">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="40"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="43"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="47"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="24">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+    <bk>
+      <rc t="2" v="10"/>
+    </bk>
+    <bk>
+      <rc t="2" v="11"/>
+    </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
+    <bk>
+      <rc t="2" v="23"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization userModified="1">
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>temps_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Calculate basic statistics
+temps_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Plot temperature trend
+# Plotting the temperature trend over the month
+plt.figure(figsize=(10, 6))
+plt.plot(temps_df['Day'], temps_df['Avg Temp (°F)'], marker='o')
+plt.title('Daily Average Temperatures in January 2023')
+plt.xlabel('Day')
+plt.ylabel('Average Temperature (°F)')
+plt.xticks(rotation=45)
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Process Control Chart for Daily Average Temperatures
+# Calculate mean and standard deviation
+mean_temp = temps_df['Avg Temp (°F)'].mean()
+std_temp = temps_df['Avg Temp (°F)'].std()
+# Calculate control limits
+ucl = mean_temp + 3 * std_temp
+lcl = mean_temp - 3 * std_temp
+# Plot process control chart
+plt.figure(figsize=(10, 6))
+plt.plot(temps_df['Day'], temps_df['Avg Temp (°F)'], marker='o', label='Avg Temp (°F)')
+plt.axhline(mean_temp, color='green', linestyle='--', label='Mean')
+plt.axhline(ucl, color='red', linestyle='--', label='UCL (Mean + 3*Std)')
+plt.axhline(lcl, color='red', linestyle='--', label='LCL (Mean - 3*Std)')
+plt.title('Process Control Chart for Daily Average Temperatures in January 2023')
+plt.xlabel('Day')
+plt.ylabel('Average Temperature (°F)')
+plt.xticks(rotation=45)
+plt.legend()
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Process Control Chart with Legend Outside Plot Area
+#Process Control Chart for Daily Average Temperatures
+# Calculate mean and standard deviation
+mean_temp = temps_df['Avg Temp (°F)'].mean()
+std_temp = temps_df['Avg Temp (°F)'].std()
+# Calculate control limits
+ucl = mean_temp + 3 * std_temp
+lcl = mean_temp - 3 * std_temp
+# Plot process control chart
+plt.figure(figsize=(10, 6))
+plt.plot(temps_df['Day'], temps_df['Avg Temp (°F)'], marker='o', label='Avg Temp (°F)')
+plt.axhline(mean_temp, color='green', linestyle='--', label='Mean')
+plt.axhline(ucl, color='red', linestyle='--', label='UCL (Mean + 3*Std)')
+plt.axhline(lcl, color='red', linestyle='--', label='LCL (Mean - 3*Std)')
+plt.title('Process Control Chart for Daily Average Temperatures in January 2023')
+plt.xlabel('Day')
+plt.ylabel('Average Temperature (°F)')
+plt.xticks(rotation=45)
+plt.legend(bbox_to_anchor=(1.05, 1), loc='upper left')
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>production_yield_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Calculate basic statistics for production yield
+production_yield_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Plot production yield trend over the month
+# Plotting the production yield trend over the month
+plt.figure(figsize=(10, 6))
+plt.plot(production_yield_df['Day'], production_yield_df['Production Yield'], marker='o')
+plt.title('Daily Production Yield in January 2023')
+plt.xlabel('Day')
+plt.ylabel('Production Yield')
+plt.xticks(rotation=45)
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Create process control chart for daily production yield
+#Process Control Chart for Daily Production Yield
+# Calculate mean and standard deviation
+mean_yield = production_yield_df['Production Yield'].mean()
+std_yield = production_yield_df['Production Yield'].std()
+# Calculate control limits
+ucl = mean_yield + 3 * std_yield
+lcl = mean_yield - 3 * std_yield
+# Plot process control chart
+plt.figure(figsize=(10, 6))
+plt.plot(production_yield_df['Day'], production_yield_df['Production Yield'], marker='o', label='Production Yield')
+plt.axhline(mean_yield, color='green', linestyle='--', label='Mean')
+plt.axhline(ucl, color='red', linestyle='--', label='UCL (Mean + 3*Std)')
+plt.axhline(lcl, color='red', linestyle='--', label='LCL (Mean - 3*Std)')
+plt.title('Process Control Chart for Daily Production Yield in January 2023')
+plt.xlabel('Day')
+plt.ylabel('Production Yield')
+plt.xticks(rotation=45)
+plt.legend()
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Process Control Chart with Legend Outside Plot Area
+#Process Control Chart with Legend Outside Plot Area
+#Process Control Chart for Daily Production Yield
+# Calculate mean and standard deviation
+mean_yield = production_yield_df['Production Yield'].mean()
+std_yield = production_yield_df['Production Yield'].std()
+# Calculate control limits
+ucl = mean_yield + 3 * std_yield
+lcl = mean_yield - 3 * std_yield
+# Plot process control chart
+plt.figure(figsize=(10, 6))
+plt.plot(production_yield_df['Day'], production_yield_df['Production Yield'], marker='o', label='Production Yield')
+plt.axhline(mean_yield, color='green', linestyle='--', label='Mean')
+plt.axhline(ucl, color='red', linestyle='--', label='UCL (Mean + 3*Std)')
+plt.axhline(lcl, color='red', linestyle='--', label='LCL (Mean - 3*Std)')
+plt.title('Process Control Chart for Daily Production Yield in January 2023')
+plt.xlabel('Day')
+plt.ylabel('Production Yield')
+plt.xticks(rotation=45)
+plt.legend(bbox_to_anchor=(1.05, 1), loc='upper left')
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
   <si>
     <t>Avg Temp (°F)</t>
   </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Load data from temps, temps</t>
+  </si>
+  <si>
+    <t>Calculate basic statistics</t>
+  </si>
+  <si>
+    <t>Plot temperature trend</t>
+  </si>
+  <si>
+    <t>Process Control Chart for Daily Average Temperatures</t>
+  </si>
+  <si>
+    <t>Process Control Chart with Legend Outside Plot Area</t>
+  </si>
+  <si>
+    <t>Production Yield</t>
+  </si>
+  <si>
+    <t>Load data from production_yield, production_yield</t>
+  </si>
+  <si>
+    <t>Calculate basic statistics for production yield</t>
+  </si>
+  <si>
+    <t>Plot production yield trend over the month</t>
+  </si>
+  <si>
+    <t>Create process control chart for daily production yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -64,16 +525,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,11 +572,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -96,11 +600,63 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -140,12 +696,957 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477843</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Plot temperature trend">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DA9531-E61F-2535-7508-95F919910928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="temps_process_control_chart!A39"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9091613"/>
+          <a:ext cx="5278443" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>477843</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" title="Process Control Chart for Daily Average Temperatures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D75BD1-55A4-C166-2256-97831F16D693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="temps_process_control_chart!A59"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13663613"/>
+          <a:ext cx="5278443" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192666</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" title="Process Control Chart with Legend Outside Plot Area">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F391EB-B51A-0CCF-265E-8DC841D43252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="temps_process_control_chart!A79"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18235613"/>
+          <a:ext cx="6593466" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532890</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Plot production yield trend over the month">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A021FD28-6EC6-8DC4-BA1A-8EB80938D6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="production_yield_process_contro!A39"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9091613"/>
+          <a:ext cx="5333490" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532890</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" title="Create process control chart for daily production yield">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A849EF8A-AE1A-5235-C873-112C073C320D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="production_yield_process_contro!A59"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13663613"/>
+          <a:ext cx="5333490" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248224</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>14081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" title="Process Control Chart with Legend Outside Plot Area">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A24B08-06CA-2070-38F2-D5A6033F2E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="production_yield_process_contro!A79"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="18172872"/>
+          <a:ext cx="6642397" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Day</v>
+    <v t="s">Avg Temp (°F)</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>59.2</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>59.3</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>60.1</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>58.7</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>59</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>26</v>
+    <v t="r">5</v>
+    <v>60.6</v>
+    <v>27</v>
+    <v t="r">6</v>
+    <v>58.9</v>
+    <v>28</v>
+    <v t="r">7</v>
+    <v>59.2</v>
+    <v>29</v>
+    <v t="r">8</v>
+    <v>61.7</v>
+    <v>30</v>
+    <v t="r">9</v>
+    <v>62.1</v>
+  </a>
+  <a r="9" c="3">
+    <v t="s"/>
+    <v t="s">Day</v>
+    <v t="s">Avg Temp (°F)</v>
+    <v t="s">count</v>
+    <v>31</v>
+    <v>31</v>
+    <v t="s">mean</v>
+    <v t="r">13</v>
+    <v>60.793548387096763</v>
+    <v t="s">min</v>
+    <v t="r">0</v>
+    <v>57.8</v>
+    <v t="s">25%</v>
+    <v t="r">14</v>
+    <v>59.3</v>
+    <v t="s">50%</v>
+    <v t="r">13</v>
+    <v>60.6</v>
+    <v t="s">75%</v>
+    <v t="r">15</v>
+    <v>61.900000000000006</v>
+    <v t="s">max</v>
+    <v t="r">9</v>
+    <v>65.2</v>
+    <v t="s">std</v>
+    <v t="r">16</v>
+    <v>1.8121691392492347</v>
+  </a>
+  <a r="2">
+    <v>863</v>
+    <v>598</v>
+  </a>
+  <a r="2">
+    <v>1078</v>
+    <v>598</v>
+  </a>
+  <a r="12" c="3">
+    <v t="s"/>
+    <v t="s">Day</v>
+    <v t="s">Production Yield</v>
+    <v>0</v>
+    <v t="r">0</v>
+    <v>50</v>
+    <v>1</v>
+    <v t="r">1</v>
+    <v>52</v>
+    <v>2</v>
+    <v t="r">2</v>
+    <v>49</v>
+    <v>3</v>
+    <v t="r">3</v>
+    <v>51</v>
+    <v>4</v>
+    <v t="r">4</v>
+    <v>85</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>26</v>
+    <v t="r">5</v>
+    <v>105</v>
+    <v>27</v>
+    <v t="r">6</v>
+    <v>49</v>
+    <v>28</v>
+    <v t="r">7</v>
+    <v>50</v>
+    <v>29</v>
+    <v t="r">8</v>
+    <v>51</v>
+    <v>30</v>
+    <v t="r">9</v>
+    <v>50</v>
+  </a>
+  <a r="9" c="3">
+    <v t="s"/>
+    <v t="s">Day</v>
+    <v t="s">Production Yield</v>
+    <v t="s">count</v>
+    <v>31</v>
+    <v>31</v>
+    <v t="s">mean</v>
+    <v t="r">13</v>
+    <v>52.58064516129032</v>
+    <v t="s">min</v>
+    <v t="r">0</v>
+    <v>15</v>
+    <v t="s">25%</v>
+    <v t="r">14</v>
+    <v>49</v>
+    <v t="s">50%</v>
+    <v t="r">13</v>
+    <v>50</v>
+    <v t="s">75%</v>
+    <v t="r">15</v>
+    <v>51</v>
+    <v t="s">max</v>
+    <v t="r">9</v>
+    <v>105</v>
+    <v t="s">std</v>
+    <v t="r">16</v>
+    <v>17.032858819643064</v>
+  </a>
+  <a r="2">
+    <v>872</v>
+    <v>598</v>
+  </a>
+  <a r="2">
+    <v>1086</v>
+    <v>598</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="48">
+  <rv s="0">
+    <fb>44927</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44928</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44929</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44930</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44931</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44953</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44954</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44955</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44956</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44957</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Day  Avg Temp (°F)
+0  2023-01-01           59.2
+1  2023-01-02           59.3
+2  2023-01-03           60.1
+3  2023-01-04           58.7
+4  2023-01-05           59.0
+5  2023-01-06           59.3
+6  2023-01-07           61.2
+7  2023-01-08       ...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <fb>44942</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44934.5</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>44949.5</fb>
+    <v>6</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>7</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>17</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                       Day  Avg Temp (°F)
+count                   31      31.000000
+mean   2023-01-16 00:00:00      60.793548
+min    2023-01-01 00:00:00      57.800000
+25%    2023-01-08 12:00:00      59.300000
+50%    2023-01-16 00:00:00      60.600000
+...</v>
+    <v>18</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>20</v>
+    <v>21</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=863x598 at 0x7FB86D797770&gt;</v>
+    <v>22</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>1</v>
+    <v>9</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>24</v>
+    <v>21</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=863x598 at 0x7FB86D5D2540&gt;</v>
+    <v>25</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>2</v>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <v>3</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>27</v>
+    <v>28</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1078x598 at 0x7FB86D5D21E0&gt;</v>
+    <v>29</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>31</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">          Day  Production Yield
+0  2023-01-01                50
+1  2023-01-02                52
+2  2023-01-03                49
+3  2023-01-04                51
+4  2023-01-05                85
+5  2023-01-06                50
+6  2023-01-07               ...</v>
+    <v>32</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>5</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>34</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                       Day  Production Yield
+count                   31         31.000000
+mean   2023-01-16 00:00:00         52.580645
+min    2023-01-01 00:00:00         15.000000
+25%    2023-01-08 12:00:00         49.000000
+50%    2023-01-16 00:00:00 ...</v>
+    <v>35</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>3</v>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <v>6</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>37</v>
+    <v>38</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=872x598 at 0x7FB86D4F57F0&gt;</v>
+    <v>39</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>4</v>
+    <v>9</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>41</v>
+    <v>38</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=872x598 at 0x7FB865197BF0&gt;</v>
+    <v>42</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>5</v>
+    <v>9</v>
+  </rv>
+  <rv s="1">
+    <v>7</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>8</v>
+    <v>44</v>
+    <v>45</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1086x598 at 0x7FB86520BC20&gt;</v>
+    <v>46</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="9">
+    <spb s="0">
+      <v>31</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+    <spb s="2">
+      <v>3</v>
+    </spb>
+    <spb s="4">
+      <v>4</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="3">
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0"/>
+    <rSty dxfid="2"/>
+    <rSty dxfid="1">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB285361-403E-4CA1-9430-B26D97BD4110}" name="Table1" displayName="Table1" ref="A1:B32" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB285361-403E-4CA1-9430-B26D97BD4110}" name="temps" displayName="temps" ref="A1:B32" totalsRowShown="0">
   <autoFilter ref="A1:B32" xr:uid="{AB285361-403E-4CA1-9430-B26D97BD4110}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9D26F710-8CCA-46F3-B987-A0514C91C471}" name="Day" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{55208C35-99F6-4A0B-BA21-8445FCBF854E}" name="Avg Temp (°F)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9D26F710-8CCA-46F3-B987-A0514C91C471}" name="Day" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{55208C35-99F6-4A0B-BA21-8445FCBF854E}" name="Avg Temp (°F)" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{808E8E52-7211-4A63-8D2D-A681BC725A2D}" name="production_yield" displayName="production_yield" ref="A1:B32" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:B32" xr:uid="{808E8E52-7211-4A63-8D2D-A681BC725A2D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{159E8E94-50BB-4F37-ACF7-972ABAB88933}" name="Day" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A5DB2D4B-1F86-4740-8BB8-0EF21D259493}" name="Production Yield" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,15 +1972,15 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B32"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.9453125" customWidth="1"/>
+    <col min="2" max="2" width="17.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,4 +2242,926 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C1938-21D5-4848-BAEF-DEB62127AC75}">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.9" x14ac:dyDescent="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,temps[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:C20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Day</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Avg Temp (°F)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="C10">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="C11">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="C12">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="C13">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" vm="7">
+        <v>44953</v>
+      </c>
+      <c r="C16">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17" vm="8">
+        <v>44954</v>
+      </c>
+      <c r="C17">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18" vm="9">
+        <v>44955</v>
+      </c>
+      <c r="C18">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="B19" vm="10">
+        <v>44956</v>
+      </c>
+      <c r="C19">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" vm="11">
+        <v>44957</v>
+      </c>
+      <c r="C20">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="e" cm="1" vm="12">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:C35">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>Day</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Avg Temp (°F)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="str">
+        <v>count</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="str">
+        <v>mean</v>
+      </c>
+      <c r="B29" vm="13">
+        <v>44942</v>
+      </c>
+      <c r="C29">
+        <v>60.793548387096763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="str">
+        <v>min</v>
+      </c>
+      <c r="B30" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="C30">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="str">
+        <v>25%</v>
+      </c>
+      <c r="B31" vm="14">
+        <v>44934.5</v>
+      </c>
+      <c r="C31">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="str">
+        <v>50%</v>
+      </c>
+      <c r="B32" vm="13">
+        <v>44942</v>
+      </c>
+      <c r="C32">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="str">
+        <v>75%</v>
+      </c>
+      <c r="B33" vm="15">
+        <v>44949.5</v>
+      </c>
+      <c r="C33">
+        <v>61.900000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="str">
+        <v>max</v>
+      </c>
+      <c r="B34" vm="11">
+        <v>44957</v>
+      </c>
+      <c r="C34">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="str">
+        <v>std</v>
+      </c>
+      <c r="B35" vm="16">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1.8121691392492347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="e" cm="1" vm="17">
+        <f t="array" ref="A39">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="e" cm="1" vm="18">
+        <f t="array" ref="A59">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="e" cm="1" vm="19">
+        <f t="array" ref="A79">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B063D151-0DBA-40D4-82E7-4B90D67BF824}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>44928</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <v>44929</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>44930</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <v>44931</v>
+      </c>
+      <c r="B6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>44932</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>44933</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>44934</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <v>44935</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>44936</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <v>44937</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>44938</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>44940</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
+        <v>44941</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>44942</v>
+      </c>
+      <c r="B17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
+        <v>44943</v>
+      </c>
+      <c r="B18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>44944</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
+        <v>44945</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4">
+        <v>44947</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4">
+        <v>44949</v>
+      </c>
+      <c r="B24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4">
+        <v>44951</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>44952</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>44954</v>
+      </c>
+      <c r="B29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4">
+        <v>44955</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>44956</v>
+      </c>
+      <c r="B31">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C8945-BE43-41A0-BAF3-2A9760F56511}">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.9" x14ac:dyDescent="1">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="e" cm="1" vm="20">
+        <f t="array" ref="A6">_xlfn._xlws.PY(5,1,production_yield[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:C20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Day</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Production Yield</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" vm="3">
+        <v>44928</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" vm="4">
+        <v>44929</v>
+      </c>
+      <c r="C12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" vm="5">
+        <v>44930</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" vm="6">
+        <v>44931</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16" vm="7">
+        <v>44953</v>
+      </c>
+      <c r="C16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17" vm="8">
+        <v>44954</v>
+      </c>
+      <c r="C17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18" vm="9">
+        <v>44955</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="B19" vm="10">
+        <v>44956</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" vm="11">
+        <v>44957</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="e" cm="1" vm="21">
+        <f t="array" ref="A24">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:C35">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>Day</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Production Yield</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="str">
+        <v>count</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="str">
+        <v>mean</v>
+      </c>
+      <c r="B29" vm="13">
+        <v>44942</v>
+      </c>
+      <c r="C29">
+        <v>52.58064516129032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="str">
+        <v>min</v>
+      </c>
+      <c r="B30" vm="2">
+        <v>44927</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="str">
+        <v>25%</v>
+      </c>
+      <c r="B31" vm="14">
+        <v>44934.5</v>
+      </c>
+      <c r="C31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="str">
+        <v>50%</v>
+      </c>
+      <c r="B32" vm="13">
+        <v>44942</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="str">
+        <v>75%</v>
+      </c>
+      <c r="B33" vm="15">
+        <v>44949.5</v>
+      </c>
+      <c r="C33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="str">
+        <v>max</v>
+      </c>
+      <c r="B34" vm="11">
+        <v>44957</v>
+      </c>
+      <c r="C34">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="str">
+        <v>std</v>
+      </c>
+      <c r="B35" vm="16">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>17.032858819643064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="e" cm="1" vm="22">
+        <f t="array" ref="A39">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="e" cm="1" vm="23">
+        <f t="array" ref="A59">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="e" cm="1" vm="24">
+        <f t="array" ref="A79">_xlfn._xlws.PY(9,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>